--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -1061,11 +1061,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Manufacturing Processes (MDPS323) Location : [14501]14501-50-الجيزة الرئيسي Time : Sunday(9:11)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Manufacturing Processes (MDPS323) Location : [14501]14501-50-الجيزة الرئيسي Time : Sunday(11:13)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Manufacturing Processes (MDPS323) Location : [14501]14501-50-الجيزة الرئيسي Time : Sunday(9:11)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Manufacturing Processes (MDPS323) Location : [14501]14501-50-الجيزة الرئيسي Time : Sunday(11:13)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Manufacturing Processes (MDPS323) Location : [14501]14501-50-الجيزة الرئيسي Time : Sunday(9:11)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Manufacturing Processes (MDPS323) Location : [14501]14501-50-الجيزة الرئيسي Time : Sunday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">

--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -148,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>YOSSRY IBRAHIM ALI MOHAMMED SEHAIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Philopateer Adel Saad Wassef Shehata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد كريم احمد على الحملي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
   </x:si>
   <x:si>
     <x:t>1220285</x:t>
@@ -272,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -887,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45913.6972151273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.6972151273</x:v>
+        <x:v>45914.4080198264</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4080198264</x:v>
+        <x:v>45909.8855600347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.8855600347</x:v>
+        <x:v>45909.4389003819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4389003819</x:v>
+        <x:v>45913.6962311343</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.6962311343</x:v>
+        <x:v>45925.5280697917</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1064,38 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45925.5280697917</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -42,15 +42,6 @@
     <x:t>Adham Medhat Abdelmoaz Heba</x:t>
   </x:si>
   <x:si>
-    <x:t>1220166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جولى حازم شوقى سليمان داود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>julie hazem shawky soliman Dawoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220238</x:t>
   </x:si>
   <x:si>
@@ -58,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ramez Labib Helmy Labib</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abdelrahman amr</x:t>
   </x:si>
   <x:si>
     <x:t>1220187</x:t>
@@ -571,7 +571,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.740625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.000625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="38.950625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -686,7 +686,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.4575351852</x:v>
+        <x:v>45909.4239799769</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -718,7 +718,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4239799769</x:v>
+        <x:v>45927.4172356829</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>

--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,15 @@
   </x:si>
   <x:si>
     <x:t>Philopateer Adel Saad Wassef Shehata</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220074</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مارى مرقص جورج ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1220285</x:t>
@@ -263,7 +272,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -563,7 +572,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T14"/>
+  <x:dimension ref="A1:T15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -878,7 +887,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.6972151273</x:v>
+        <x:v>45929.0560287037</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -910,7 +919,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4080198264</x:v>
+        <x:v>45913.6972151273</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -942,7 +951,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.8855600347</x:v>
+        <x:v>45914.4080198264</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -974,7 +983,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4389003819</x:v>
+        <x:v>45909.8855600347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1006,7 +1015,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.6962311343</x:v>
+        <x:v>45909.4389003819</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1038,7 +1047,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45925.5280697917</x:v>
+        <x:v>45913.6962311343</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1055,6 +1064,38 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:20">
+      <x:c r="A15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E15" s="3">
+        <x:v>45925.5280697917</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="s"/>
+      <x:c r="G15" s="2" t="s"/>
+      <x:c r="H15" s="2" t="s"/>
+      <x:c r="I15" s="2" t="s"/>
+      <x:c r="J15" s="2" t="s"/>
+      <x:c r="K15" s="2" t="s"/>
+      <x:c r="L15" s="2" t="s"/>
+      <x:c r="M15" s="2" t="s"/>
+      <x:c r="N15" s="2" t="s"/>
+      <x:c r="O15" s="2" t="s"/>
+      <x:c r="P15" s="2" t="s"/>
+      <x:c r="Q15" s="2" t="s"/>
+      <x:c r="R15" s="2" t="s"/>
+      <x:c r="S15" s="2" t="s"/>
+      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,15 +94,6 @@
   </x:si>
   <x:si>
     <x:t>Philopateer Adel Saad Wassef Shehata</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220074</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مارى مرقص جورج ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
     <x:t>1220285</x:t>
@@ -272,7 +263,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E14" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -572,7 +563,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T15"/>
+  <x:dimension ref="A1:T14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -887,7 +878,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45929.0560287037</x:v>
+        <x:v>45913.6972151273</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -919,7 +910,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.6972151273</x:v>
+        <x:v>45914.4080198264</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -951,7 +942,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4080198264</x:v>
+        <x:v>45909.8855600347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -983,7 +974,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.8855600347</x:v>
+        <x:v>45909.4389003819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1015,7 +1006,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4389003819</x:v>
+        <x:v>45913.6962311343</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1047,7 +1038,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.6962311343</x:v>
+        <x:v>45925.5280697917</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1064,38 +1055,6 @@
       <x:c r="R14" s="2" t="s"/>
       <x:c r="S14" s="2" t="s"/>
       <x:c r="T14" s="2" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:20">
-      <x:c r="A15" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B15" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E15" s="3">
-        <x:v>45925.5280697917</x:v>
-      </x:c>
-      <x:c r="F15" s="2" t="s"/>
-      <x:c r="G15" s="2" t="s"/>
-      <x:c r="H15" s="2" t="s"/>
-      <x:c r="I15" s="2" t="s"/>
-      <x:c r="J15" s="2" t="s"/>
-      <x:c r="K15" s="2" t="s"/>
-      <x:c r="L15" s="2" t="s"/>
-      <x:c r="M15" s="2" t="s"/>
-      <x:c r="N15" s="2" t="s"/>
-      <x:c r="O15" s="2" t="s"/>
-      <x:c r="P15" s="2" t="s"/>
-      <x:c r="Q15" s="2" t="s"/>
-      <x:c r="R15" s="2" t="s"/>
-      <x:c r="S15" s="2" t="s"/>
-      <x:c r="T15" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS323_Lecture-35370.xlsx
+++ b/downloaded_files/MDPS323_Lecture-35370.xlsx
@@ -39,7 +39,7 @@
     <x:t>ادهم مدحت عبدالمعز العزب هيبه</x:t>
   </x:si>
   <x:si>
-    <x:t>Adham Medhat Abdelmoaz Heba</x:t>
+    <x:t>Adham Medhat Abdelmoaz Elazab Heba</x:t>
   </x:si>
   <x:si>
     <x:t>1220238</x:t>
